--- a/_downloads/e5fcdc0b7877053d77d7631c57a7793d/train-TR-12AB-1.xlsx
+++ b/_downloads/e5fcdc0b7877053d77d7631c57a7793d/train-TR-12AB-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\tap-tsi\fte-tom\tom\docs\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9B42764-9205-4AA0-A657-86C2A46CE2BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88763F3-65E7-4BDB-AE71-217435F31C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="840" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,121 +20,388 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>Venlo</t>
-  </si>
-  <si>
-    <t>EMM</t>
-  </si>
-  <si>
-    <t>FF</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="125">
+  <si>
+    <t>Departure AC</t>
+  </si>
+  <si>
+    <t>Arrival Venlo</t>
+  </si>
+  <si>
+    <t>Departure Venlo</t>
+  </si>
+  <si>
+    <t>Arrival EMM</t>
+  </si>
+  <si>
+    <t>Departure EMM</t>
+  </si>
+  <si>
+    <t>Arrival FF</t>
   </si>
   <si>
     <t>TR/8350/12AB/2021/10.01/2021-12-01</t>
   </si>
   <si>
+    <t>Wed 01.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Thu 02.12.21 02:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/10.01/2021-12-02</t>
   </si>
   <si>
+    <t>Thu 02.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Fri 03.12.21 02:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/20.01/2021-12-03</t>
   </si>
   <si>
+    <t>Fri 03.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Sat 04.12.21 01:55  1</t>
+  </si>
+  <si>
+    <t>Sat 04.12.21 02:00  1</t>
+  </si>
+  <si>
+    <t>Sat 04.12.21 12:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/20.01/2021-12-04</t>
   </si>
   <si>
+    <t>Sat 04.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Sun 05.12.21 01:55  1</t>
+  </si>
+  <si>
+    <t>Sun 05.12.21 02:00  1</t>
+  </si>
+  <si>
+    <t>Sun 05.12.21 12:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/20.01/2021-12-05</t>
   </si>
   <si>
+    <t>Sun 05.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Mon 06.12.21 01:55  1</t>
+  </si>
+  <si>
+    <t>Mon 06.12.21 02:00  1</t>
+  </si>
+  <si>
+    <t>Mon 06.12.21 12:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/10.01/2021-12-06</t>
   </si>
   <si>
+    <t>Mon 06.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Tue 07.12.21 02:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/10.01/2021-12-07</t>
   </si>
   <si>
+    <t>Tue 07.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Wed 08.12.21 02:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/10.01/2021-12-08</t>
   </si>
   <si>
+    <t>Wed 08.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Thu 09.12.21 02:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/10.01/2021-12-09</t>
   </si>
   <si>
+    <t>Thu 09.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Fri 10.12.21 02:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/20.01/2021-12-10</t>
   </si>
   <si>
+    <t>Fri 10.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Sat 11.12.21 01:55  1</t>
+  </si>
+  <si>
+    <t>Sat 11.12.21 02:00  1</t>
+  </si>
+  <si>
+    <t>Sat 11.12.21 12:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/20.01/2021-12-11</t>
   </si>
   <si>
+    <t>Sat 11.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Sun 12.12.21 01:55  1</t>
+  </si>
+  <si>
+    <t>Sun 12.12.21 02:00  1</t>
+  </si>
+  <si>
+    <t>Sun 12.12.21 12:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/20.01/2021-12-12</t>
   </si>
   <si>
+    <t>Sun 12.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Mon 13.12.21 01:55  1</t>
+  </si>
+  <si>
+    <t>Mon 13.12.21 02:00  1</t>
+  </si>
+  <si>
+    <t>Mon 13.12.21 12:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/10.01/2021-12-13</t>
   </si>
   <si>
+    <t>Mon 13.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Tue 14.12.21 02:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/10.01/2021-12-14</t>
   </si>
   <si>
+    <t>Tue 14.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Wed 15.12.21 02:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/10.01/2021-12-15</t>
   </si>
   <si>
+    <t>Wed 15.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Thu 16.12.21 02:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/10.01/2021-12-16</t>
   </si>
   <si>
+    <t>Thu 16.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Fri 17.12.21 02:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/20.01/2021-12-17</t>
   </si>
   <si>
+    <t>Fri 17.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Sat 18.12.21 01:55  1</t>
+  </si>
+  <si>
+    <t>Sat 18.12.21 02:00  1</t>
+  </si>
+  <si>
+    <t>Sat 18.12.21 12:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/20.01/2021-12-18</t>
   </si>
   <si>
+    <t>Sat 18.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Sun 19.12.21 01:55  1</t>
+  </si>
+  <si>
+    <t>Sun 19.12.21 02:00  1</t>
+  </si>
+  <si>
+    <t>Sun 19.12.21 12:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/20.01/2021-12-19</t>
   </si>
   <si>
+    <t>Sun 19.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Mon 20.12.21 01:55  1</t>
+  </si>
+  <si>
+    <t>Mon 20.12.21 02:00  1</t>
+  </si>
+  <si>
+    <t>Mon 20.12.21 12:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/10.01/2021-12-20</t>
   </si>
   <si>
+    <t>Mon 20.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Tue 21.12.21 02:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/10.01/2021-12-21</t>
   </si>
   <si>
+    <t>Tue 21.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Wed 22.12.21 02:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/10.01/2021-12-22</t>
   </si>
   <si>
+    <t>Wed 22.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Thu 23.12.21 02:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/10.01/2021-12-23</t>
   </si>
   <si>
+    <t>Thu 23.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Fri 24.12.21 02:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/20.01/2021-12-24</t>
   </si>
   <si>
+    <t>Fri 24.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Sat 25.12.21 01:55  1</t>
+  </si>
+  <si>
+    <t>Sat 25.12.21 02:00  1</t>
+  </si>
+  <si>
+    <t>Sat 25.12.21 12:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/20.01/2021-12-25</t>
   </si>
   <si>
+    <t>Sat 25.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Sun 26.12.21 01:55  1</t>
+  </si>
+  <si>
+    <t>Sun 26.12.21 02:00  1</t>
+  </si>
+  <si>
+    <t>Sun 26.12.21 12:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/20.01/2021-12-26</t>
   </si>
   <si>
+    <t>Sun 26.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Mon 27.12.21 01:55  1</t>
+  </si>
+  <si>
+    <t>Mon 27.12.21 02:00  1</t>
+  </si>
+  <si>
+    <t>Mon 27.12.21 12:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/10.01/2021-12-27</t>
   </si>
   <si>
+    <t>Mon 27.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Tue 28.12.21 02:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/10.01/2021-12-28</t>
   </si>
   <si>
+    <t>Tue 28.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Wed 29.12.21 02:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/10.01/2021-12-29</t>
   </si>
   <si>
+    <t>Wed 29.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Thu 30.12.21 02:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/10.01/2021-12-30</t>
   </si>
   <si>
+    <t>Thu 30.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Fri 31.12.21 02:00  1</t>
+  </si>
+  <si>
     <t>TR/8350/12AB/2021/20.01/2021-12-31</t>
+  </si>
+  <si>
+    <t>Fri 31.12.21 23:50  0</t>
+  </si>
+  <si>
+    <t>Sat 01.01.22 01:55  1</t>
+  </si>
+  <si>
+    <t>Sat 01.01.22 02:00  1</t>
+  </si>
+  <si>
+    <t>Sat 01.01.22 12:00  1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,9 +410,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,10 +459,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -491,467 +765,568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>44531.993055555547</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44532.083333333343</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44532.08333333375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>44532.993055555547</v>
-      </c>
-      <c r="D3" s="2">
-        <v>44533.083333333343</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44533.08333333375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>44533.993055555547</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44534.079861111109</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44534.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
-        <v>44534.993055555547</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44535.079861111109</v>
-      </c>
-      <c r="E5" s="2">
-        <v>44535.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
-        <v>44535.993055555547</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44536.079861111109</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44536.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
-        <v>44536.993055555547</v>
-      </c>
-      <c r="D7" s="2">
-        <v>44537.083333333343</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44537.08333333375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
-        <v>44537.993055555547</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44538.083333333343</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44538.08333333375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
-        <v>44538.993055555547</v>
-      </c>
-      <c r="D9" s="2">
-        <v>44539.083333333343</v>
-      </c>
-      <c r="E9" s="2">
-        <v>44539.08333333375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
-        <v>44539.993055555547</v>
-      </c>
-      <c r="D10" s="2">
-        <v>44540.083333333343</v>
-      </c>
-      <c r="E10" s="2">
-        <v>44540.08333333375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
-        <v>44540.993055555547</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44541.079861111109</v>
-      </c>
-      <c r="E11" s="2">
-        <v>44541.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
-        <v>44541.993055555547</v>
-      </c>
-      <c r="C12" s="2">
-        <v>44542.079861111109</v>
-      </c>
-      <c r="E12" s="2">
-        <v>44542.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2">
-        <v>44542.993055555547</v>
-      </c>
-      <c r="C13" s="2">
-        <v>44543.079861111109</v>
-      </c>
-      <c r="E13" s="2">
-        <v>44543.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
-        <v>44543.993055555547</v>
-      </c>
-      <c r="D14" s="2">
-        <v>44544.083333333343</v>
-      </c>
-      <c r="E14" s="2">
-        <v>44544.08333333375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2">
-        <v>44544.993055555547</v>
-      </c>
-      <c r="D15" s="2">
-        <v>44545.083333333343</v>
-      </c>
-      <c r="E15" s="2">
-        <v>44545.08333333375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2">
-        <v>44545.993055555547</v>
-      </c>
-      <c r="D16" s="2">
-        <v>44546.083333333343</v>
-      </c>
-      <c r="E16" s="2">
-        <v>44546.08333333375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2">
-        <v>44546.993055555547</v>
-      </c>
-      <c r="D17" s="2">
-        <v>44547.083333333343</v>
-      </c>
-      <c r="E17" s="2">
-        <v>44547.08333333375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
-        <v>44547.993055555547</v>
-      </c>
-      <c r="C18" s="2">
-        <v>44548.079861111109</v>
-      </c>
-      <c r="E18" s="2">
-        <v>44548.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2">
-        <v>44548.993055555547</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44549.079861111109</v>
-      </c>
-      <c r="E19" s="2">
-        <v>44549.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2">
-        <v>44549.993055555547</v>
-      </c>
-      <c r="C20" s="2">
-        <v>44550.079861111109</v>
-      </c>
-      <c r="E20" s="2">
-        <v>44550.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2">
-        <v>44550.993055555547</v>
-      </c>
-      <c r="D21" s="2">
-        <v>44551.083333333343</v>
-      </c>
-      <c r="E21" s="2">
-        <v>44551.08333333375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2">
-        <v>44551.993055555547</v>
-      </c>
-      <c r="D22" s="2">
-        <v>44552.083333333343</v>
-      </c>
-      <c r="E22" s="2">
-        <v>44552.08333333375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2">
-        <v>44552.993055555547</v>
-      </c>
-      <c r="D23" s="2">
-        <v>44553.083333333343</v>
-      </c>
-      <c r="E23" s="2">
-        <v>44553.08333333375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="2">
-        <v>44553.993055555547</v>
-      </c>
-      <c r="D24" s="2">
-        <v>44554.083333333343</v>
-      </c>
-      <c r="E24" s="2">
-        <v>44554.08333333375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2">
-        <v>44554.993055555547</v>
-      </c>
-      <c r="C25" s="2">
-        <v>44555.079861111109</v>
-      </c>
-      <c r="E25" s="2">
-        <v>44555.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2">
-        <v>44555.993055555547</v>
-      </c>
-      <c r="C26" s="2">
-        <v>44556.079861111109</v>
-      </c>
-      <c r="E26" s="2">
-        <v>44556.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="2">
-        <v>44556.993055555547</v>
-      </c>
-      <c r="C27" s="2">
-        <v>44557.079861111109</v>
-      </c>
-      <c r="E27" s="2">
-        <v>44557.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="2">
-        <v>44557.993055555547</v>
-      </c>
-      <c r="D28" s="2">
-        <v>44558.083333333343</v>
-      </c>
-      <c r="E28" s="2">
-        <v>44558.08333333375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="2">
-        <v>44558.993055555547</v>
-      </c>
-      <c r="D29" s="2">
-        <v>44559.083333333343</v>
-      </c>
-      <c r="E29" s="2">
-        <v>44559.08333333375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="2">
-        <v>44559.993055555547</v>
-      </c>
-      <c r="D30" s="2">
-        <v>44560.083333333343</v>
-      </c>
-      <c r="E30" s="2">
-        <v>44560.08333333375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="2">
-        <v>44560.993055555547</v>
-      </c>
-      <c r="D31" s="2">
-        <v>44561.083333333343</v>
-      </c>
-      <c r="E31" s="2">
-        <v>44561.08333333375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="2">
-        <v>44561.993055555547</v>
-      </c>
-      <c r="C32" s="2">
-        <v>44562.079861111109</v>
-      </c>
-      <c r="E32" s="2">
-        <v>44562.5</v>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>